--- a/002/dao/xiaotu/chuzhong_kexue/七下期中/003.xlsx
+++ b/002/dao/xiaotu/chuzhong_kexue/七下期中/003.xlsx
@@ -1,21 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28702"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\初中科学试卷\试卷分析\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangpeng/Documents/test/test6/002/dao/xiaotu/chuzhong_kexue/七下期中/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15720" windowHeight="5790"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19680"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -1277,8 +1285,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <rFont val="DengXian"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1294,8 +1301,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <rFont val="DengXian"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1311,8 +1317,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <rFont val="DengXian"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1333,37 +1338,37 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="DengXian"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="宋体"/>
+      <name val="DengXian"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="DengXian"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="DengXian"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="DengXian"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1448,6 +1453,14 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1462,14 +1475,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1531,12 +1536,12 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="DengXian Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -1566,12 +1571,12 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="DengXian" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -1777,23 +1782,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z153"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="Y6" sqref="Y6"/>
+    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
+      <selection activeCell="G150" sqref="G150"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="9" width="9" style="1"/>
-    <col min="10" max="10" width="52.625" style="1" customWidth="1"/>
-    <col min="11" max="13" width="8.875" style="2" customWidth="1"/>
-    <col min="14" max="16" width="8.875" style="3" customWidth="1"/>
-    <col min="17" max="19" width="8.875" style="4" customWidth="1"/>
-    <col min="20" max="22" width="8.875" style="5" customWidth="1"/>
-    <col min="23" max="25" width="8.875" style="6" customWidth="1"/>
+    <col min="10" max="10" width="52.6640625" style="1" customWidth="1"/>
+    <col min="11" max="13" width="8.83203125" style="2" customWidth="1"/>
+    <col min="14" max="16" width="8.83203125" style="3" customWidth="1"/>
+    <col min="17" max="19" width="8.83203125" style="4" customWidth="1"/>
+    <col min="20" max="22" width="8.83203125" style="5" customWidth="1"/>
+    <col min="23" max="25" width="8.83203125" style="6" customWidth="1"/>
     <col min="26" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
       <c r="L1" s="2">
         <v>120</v>
       </c>
@@ -1810,7 +1815,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="2" spans="1:26">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1841,36 +1846,36 @@
       <c r="J2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="13" t="s">
+      <c r="K2" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="13"/>
-      <c r="M2" s="13"/>
-      <c r="N2" s="14" t="s">
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="O2" s="14"/>
-      <c r="P2" s="14"/>
-      <c r="Q2" s="15" t="s">
+      <c r="O2" s="18"/>
+      <c r="P2" s="18"/>
+      <c r="Q2" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="R2" s="15"/>
-      <c r="S2" s="15"/>
-      <c r="T2" s="16" t="s">
+      <c r="R2" s="19"/>
+      <c r="S2" s="19"/>
+      <c r="T2" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="U2" s="16"/>
-      <c r="V2" s="16"/>
-      <c r="W2" s="17" t="s">
+      <c r="U2" s="20"/>
+      <c r="V2" s="20"/>
+      <c r="W2" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="X2" s="17"/>
-      <c r="Y2" s="17"/>
-      <c r="Z2" s="20" t="s">
+      <c r="X2" s="21"/>
+      <c r="Y2" s="21"/>
+      <c r="Z2" s="15" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="3" spans="1:26">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
       <c r="K3" s="7" t="s">
         <v>15</v>
       </c>
@@ -1916,9 +1921,9 @@
       <c r="Y3" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="Z3" s="21"/>
-    </row>
-    <row r="4" spans="1:26">
+      <c r="Z3" s="16"/>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>18</v>
       </c>
@@ -1954,7 +1959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:26">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>18</v>
       </c>
@@ -2014,7 +2019,7 @@
         <v>1.1333333333333333</v>
       </c>
     </row>
-    <row r="6" spans="1:26">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>18</v>
       </c>
@@ -2050,7 +2055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:26">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>18</v>
       </c>
@@ -2081,7 +2086,7 @@
       <c r="J7" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="K7" s="18" t="s">
+      <c r="K7" s="13" t="s">
         <v>418</v>
       </c>
       <c r="L7" s="2">
@@ -2131,7 +2136,7 @@
         <v>3.1999999999999993</v>
       </c>
     </row>
-    <row r="8" spans="1:26">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>18</v>
       </c>
@@ -2167,7 +2172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:26">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>18</v>
       </c>
@@ -2224,7 +2229,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="10" spans="1:26">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
@@ -2275,7 +2280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:26">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>18</v>
       </c>
@@ -2326,7 +2331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:26">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>18</v>
       </c>
@@ -2360,7 +2365,7 @@
       <c r="M12" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="N12" s="19" t="s">
+      <c r="N12" s="14" t="s">
         <v>419</v>
       </c>
       <c r="O12" s="3">
@@ -2395,7 +2400,7 @@
         <v>1.5666666666666667</v>
       </c>
     </row>
-    <row r="13" spans="1:26">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>18</v>
       </c>
@@ -2446,7 +2451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:26">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>18</v>
       </c>
@@ -2515,7 +2520,7 @@
         <v>1.3333333333333333</v>
       </c>
     </row>
-    <row r="15" spans="1:26">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>18</v>
       </c>
@@ -2566,7 +2571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:26">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>18</v>
       </c>
@@ -2617,7 +2622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:26">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>18</v>
       </c>
@@ -2668,7 +2673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:26">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>18</v>
       </c>
@@ -2719,7 +2724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:26">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
@@ -2788,7 +2793,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="20" spans="1:26">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
@@ -2845,7 +2850,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="21" spans="1:26">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>18</v>
       </c>
@@ -2896,7 +2901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:26">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>18</v>
       </c>
@@ -2971,7 +2976,7 @@
         <v>1.4666666666666666</v>
       </c>
     </row>
-    <row r="23" spans="1:26">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>18</v>
       </c>
@@ -3052,7 +3057,7 @@
         <v>1.9999999999999998</v>
       </c>
     </row>
-    <row r="24" spans="1:26">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>18</v>
       </c>
@@ -3109,7 +3114,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="25" spans="1:26">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>18</v>
       </c>
@@ -3172,7 +3177,7 @@
         <v>0.89999999999999991</v>
       </c>
     </row>
-    <row r="26" spans="1:26">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>18</v>
       </c>
@@ -3253,7 +3258,7 @@
         <v>2.1999999999999997</v>
       </c>
     </row>
-    <row r="27" spans="1:26">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>18</v>
       </c>
@@ -3310,7 +3315,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="28" spans="1:26">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>18</v>
       </c>
@@ -3361,7 +3366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:26">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>18</v>
       </c>
@@ -3412,7 +3417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:26">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>18</v>
       </c>
@@ -3463,7 +3468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:26">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>18</v>
       </c>
@@ -3520,7 +3525,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="32" spans="1:26">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>18</v>
       </c>
@@ -3571,7 +3576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:26">
+    <row r="33" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>18</v>
       </c>
@@ -3622,7 +3627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:26">
+    <row r="34" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>18</v>
       </c>
@@ -3685,7 +3690,7 @@
         <v>2.8666666666666663</v>
       </c>
     </row>
-    <row r="35" spans="1:26">
+    <row r="35" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>18</v>
       </c>
@@ -3736,7 +3741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:26">
+    <row r="36" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>18</v>
       </c>
@@ -3799,7 +3804,7 @@
         <v>0.93333333333333324</v>
       </c>
     </row>
-    <row r="37" spans="1:26">
+    <row r="37" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>18</v>
       </c>
@@ -3850,7 +3855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:26">
+    <row r="38" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>18</v>
       </c>
@@ -3907,7 +3912,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="39" spans="1:26">
+    <row r="39" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>18</v>
       </c>
@@ -3976,7 +3981,7 @@
         <v>1.0666666666666667</v>
       </c>
     </row>
-    <row r="40" spans="1:26">
+    <row r="40" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>18</v>
       </c>
@@ -4027,7 +4032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:26">
+    <row r="41" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>18</v>
       </c>
@@ -4084,7 +4089,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="42" spans="1:26">
+    <row r="42" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>18</v>
       </c>
@@ -4141,7 +4146,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="43" spans="1:26">
+    <row r="43" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>18</v>
       </c>
@@ -4198,7 +4203,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="44" spans="1:26">
+    <row r="44" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>18</v>
       </c>
@@ -4249,7 +4254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:26">
+    <row r="45" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>18</v>
       </c>
@@ -4306,7 +4311,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="46" spans="1:26">
+    <row r="46" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>18</v>
       </c>
@@ -4357,7 +4362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:26">
+    <row r="47" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>18</v>
       </c>
@@ -4414,7 +4419,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="48" spans="1:26">
+    <row r="48" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>18</v>
       </c>
@@ -4477,7 +4482,7 @@
         <v>0.83333333333333348</v>
       </c>
     </row>
-    <row r="49" spans="1:26">
+    <row r="49" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>18</v>
       </c>
@@ -4552,7 +4557,7 @@
         <v>1.8333333333333333</v>
       </c>
     </row>
-    <row r="50" spans="1:26">
+    <row r="50" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>18</v>
       </c>
@@ -4603,7 +4608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:26">
+    <row r="51" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>18</v>
       </c>
@@ -4654,7 +4659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:26">
+    <row r="52" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>18</v>
       </c>
@@ -4705,7 +4710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:26">
+    <row r="53" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>18</v>
       </c>
@@ -4756,7 +4761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:26">
+    <row r="54" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>18</v>
       </c>
@@ -4819,7 +4824,7 @@
         <v>0.73333333333333328</v>
       </c>
     </row>
-    <row r="55" spans="1:26">
+    <row r="55" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>18</v>
       </c>
@@ -4870,7 +4875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:26">
+    <row r="56" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>18</v>
       </c>
@@ -4927,7 +4932,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="57" spans="1:26">
+    <row r="57" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>18</v>
       </c>
@@ -4990,7 +4995,7 @@
         <v>2.3666666666666667</v>
       </c>
     </row>
-    <row r="58" spans="1:26">
+    <row r="58" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>18</v>
       </c>
@@ -5047,7 +5052,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="59" spans="1:26">
+    <row r="59" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>18</v>
       </c>
@@ -5104,7 +5109,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="60" spans="1:26">
+    <row r="60" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>18</v>
       </c>
@@ -5185,7 +5190,7 @@
         <v>3.4999999999999996</v>
       </c>
     </row>
-    <row r="61" spans="1:26">
+    <row r="61" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>18</v>
       </c>
@@ -5254,7 +5259,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="62" spans="1:26">
+    <row r="62" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>18</v>
       </c>
@@ -5329,7 +5334,7 @@
         <v>5.8666666666666663</v>
       </c>
     </row>
-    <row r="63" spans="1:26">
+    <row r="63" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>18</v>
       </c>
@@ -5380,7 +5385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:26">
+    <row r="64" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>18</v>
       </c>
@@ -5437,7 +5442,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="65" spans="1:26">
+    <row r="65" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>18</v>
       </c>
@@ -5518,7 +5523,7 @@
         <v>6.7666666666666666</v>
       </c>
     </row>
-    <row r="66" spans="1:26">
+    <row r="66" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>18</v>
       </c>
@@ -5575,7 +5580,7 @@
         <v>2.3333333333333335</v>
       </c>
     </row>
-    <row r="67" spans="1:26">
+    <row r="67" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>18</v>
       </c>
@@ -5626,7 +5631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:26">
+    <row r="68" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>18</v>
       </c>
@@ -5683,7 +5688,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="69" spans="1:26">
+    <row r="69" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>18</v>
       </c>
@@ -5734,7 +5739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:26">
+    <row r="70" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>18</v>
       </c>
@@ -5815,7 +5820,7 @@
         <v>4.4666666666666668</v>
       </c>
     </row>
-    <row r="71" spans="1:26">
+    <row r="71" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>18</v>
       </c>
@@ -5878,7 +5883,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="72" spans="1:26">
+    <row r="72" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>18</v>
       </c>
@@ -5947,7 +5952,7 @@
         <v>1.8666666666666665</v>
       </c>
     </row>
-    <row r="73" spans="1:26">
+    <row r="73" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>18</v>
       </c>
@@ -6022,7 +6027,7 @@
         <v>6.6333333333333329</v>
       </c>
     </row>
-    <row r="74" spans="1:26">
+    <row r="74" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>18</v>
       </c>
@@ -6091,7 +6096,7 @@
         <v>1.9000000000000004</v>
       </c>
     </row>
-    <row r="75" spans="1:26">
+    <row r="75" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>18</v>
       </c>
@@ -6142,7 +6147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:26">
+    <row r="76" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>18</v>
       </c>
@@ -6205,7 +6210,7 @@
         <v>0.93333333333333324</v>
       </c>
     </row>
-    <row r="77" spans="1:26">
+    <row r="77" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>18</v>
       </c>
@@ -6256,7 +6261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:26">
+    <row r="78" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>18</v>
       </c>
@@ -6337,7 +6342,7 @@
         <v>3.5333333333333341</v>
       </c>
     </row>
-    <row r="79" spans="1:26">
+    <row r="79" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>18</v>
       </c>
@@ -6394,7 +6399,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="80" spans="1:26">
+    <row r="80" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>18</v>
       </c>
@@ -6445,7 +6450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:26">
+    <row r="81" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>18</v>
       </c>
@@ -6514,7 +6519,7 @@
         <v>3.2666666666666662</v>
       </c>
     </row>
-    <row r="82" spans="1:26">
+    <row r="82" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>18</v>
       </c>
@@ -6577,7 +6582,7 @@
         <v>1.2333333333333332</v>
       </c>
     </row>
-    <row r="83" spans="1:26">
+    <row r="83" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>18</v>
       </c>
@@ -6652,7 +6657,7 @@
         <v>1.4666666666666666</v>
       </c>
     </row>
-    <row r="84" spans="1:26">
+    <row r="84" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>18</v>
       </c>
@@ -6709,7 +6714,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="85" spans="1:26">
+    <row r="85" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>18</v>
       </c>
@@ -6766,7 +6771,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="86" spans="1:26">
+    <row r="86" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>18</v>
       </c>
@@ -6817,7 +6822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:26">
+    <row r="87" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>18</v>
       </c>
@@ -6874,7 +6879,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="88" spans="1:26">
+    <row r="88" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>18</v>
       </c>
@@ -6925,7 +6930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:26">
+    <row r="89" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>18</v>
       </c>
@@ -6976,7 +6981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:26">
+    <row r="90" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>18</v>
       </c>
@@ -7027,7 +7032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:26">
+    <row r="91" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
         <v>18</v>
       </c>
@@ -7090,7 +7095,7 @@
         <v>1.0666666666666667</v>
       </c>
     </row>
-    <row r="92" spans="1:26">
+    <row r="92" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
         <v>18</v>
       </c>
@@ -7171,7 +7176,7 @@
         <v>6.7999999999999989</v>
       </c>
     </row>
-    <row r="93" spans="1:26">
+    <row r="93" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
         <v>18</v>
       </c>
@@ -7222,7 +7227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:26">
+    <row r="94" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
         <v>18</v>
       </c>
@@ -7279,7 +7284,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="95" spans="1:26">
+    <row r="95" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
         <v>18</v>
       </c>
@@ -7348,7 +7353,7 @@
         <v>1.0666666666666667</v>
       </c>
     </row>
-    <row r="96" spans="1:26">
+    <row r="96" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>18</v>
       </c>
@@ -7411,7 +7416,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="97" spans="1:26">
+    <row r="97" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
         <v>18</v>
       </c>
@@ -7468,7 +7473,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="98" spans="1:26">
+    <row r="98" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
         <v>18</v>
       </c>
@@ -7519,7 +7524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:26">
+    <row r="99" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
         <v>18</v>
       </c>
@@ -7570,7 +7575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:26">
+    <row r="100" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
         <v>18</v>
       </c>
@@ -7621,7 +7626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:26">
+    <row r="101" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
         <v>18</v>
       </c>
@@ -7672,7 +7677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:26">
+    <row r="102" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
         <v>18</v>
       </c>
@@ -7723,7 +7728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:26">
+    <row r="103" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
         <v>18</v>
       </c>
@@ -7774,7 +7779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:26">
+    <row r="104" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
         <v>18</v>
       </c>
@@ -7825,7 +7830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:26">
+    <row r="105" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
         <v>18</v>
       </c>
@@ -7876,7 +7881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:26">
+    <row r="106" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
         <v>18</v>
       </c>
@@ -7927,7 +7932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:26">
+    <row r="107" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
         <v>18</v>
       </c>
@@ -7978,7 +7983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:26">
+    <row r="108" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
         <v>18</v>
       </c>
@@ -8029,7 +8034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:26">
+    <row r="109" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
         <v>18</v>
       </c>
@@ -8080,7 +8085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:26">
+    <row r="110" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
         <v>18</v>
       </c>
@@ -8131,7 +8136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:26">
+    <row r="111" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
         <v>18</v>
       </c>
@@ -8182,7 +8187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:26">
+    <row r="112" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
         <v>18</v>
       </c>
@@ -8233,7 +8238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:26">
+    <row r="113" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
         <v>18</v>
       </c>
@@ -8284,7 +8289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:26">
+    <row r="114" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
         <v>18</v>
       </c>
@@ -8335,7 +8340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:26">
+    <row r="115" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
         <v>18</v>
       </c>
@@ -8386,7 +8391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:26">
+    <row r="116" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
         <v>18</v>
       </c>
@@ -8437,7 +8442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:26">
+    <row r="117" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
         <v>18</v>
       </c>
@@ -8488,7 +8493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:26">
+    <row r="118" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
         <v>18</v>
       </c>
@@ -8539,7 +8544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:26">
+    <row r="119" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
         <v>18</v>
       </c>
@@ -8590,7 +8595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:26">
+    <row r="120" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
         <v>18</v>
       </c>
@@ -8641,7 +8646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:26">
+    <row r="121" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
         <v>18</v>
       </c>
@@ -8692,7 +8697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:26">
+    <row r="122" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
         <v>18</v>
       </c>
@@ -8743,7 +8748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:26">
+    <row r="123" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
         <v>18</v>
       </c>
@@ -8794,7 +8799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:26">
+    <row r="124" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
         <v>18</v>
       </c>
@@ -8845,7 +8850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:26">
+    <row r="125" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
         <v>18</v>
       </c>
@@ -8896,7 +8901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:26">
+    <row r="126" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
         <v>18</v>
       </c>
@@ -8947,7 +8952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:26">
+    <row r="127" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
         <v>18</v>
       </c>
@@ -8998,7 +9003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:26">
+    <row r="128" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
         <v>18</v>
       </c>
@@ -9049,7 +9054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:26">
+    <row r="129" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
         <v>18</v>
       </c>
@@ -9100,7 +9105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:26">
+    <row r="130" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
         <v>18</v>
       </c>
@@ -9151,7 +9156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:26">
+    <row r="131" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
         <v>18</v>
       </c>
@@ -9202,7 +9207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:26">
+    <row r="132" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
         <v>18</v>
       </c>
@@ -9253,7 +9258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:26">
+    <row r="133" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
         <v>18</v>
       </c>
@@ -9304,7 +9309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:26">
+    <row r="134" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
         <v>18</v>
       </c>
@@ -9355,7 +9360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:26">
+    <row r="135" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
         <v>18</v>
       </c>
@@ -9406,7 +9411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:26">
+    <row r="136" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
         <v>18</v>
       </c>
@@ -9457,7 +9462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:26">
+    <row r="137" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
         <v>18</v>
       </c>
@@ -9508,7 +9513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:26">
+    <row r="138" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
         <v>18</v>
       </c>
@@ -9559,7 +9564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:26">
+    <row r="139" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
         <v>18</v>
       </c>
@@ -9610,7 +9615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:26">
+    <row r="140" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
         <v>18</v>
       </c>
@@ -9661,7 +9666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:26">
+    <row r="141" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
         <v>18</v>
       </c>
@@ -9712,7 +9717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:26">
+    <row r="142" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
         <v>18</v>
       </c>
@@ -9763,7 +9768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:26">
+    <row r="143" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
         <v>18</v>
       </c>
@@ -9814,7 +9819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:26">
+    <row r="144" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
         <v>18</v>
       </c>
@@ -9865,7 +9870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:26">
+    <row r="145" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
         <v>18</v>
       </c>
@@ -9916,7 +9921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:26">
+    <row r="146" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
         <v>18</v>
       </c>
@@ -9967,7 +9972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:26">
+    <row r="147" spans="1:26" x14ac:dyDescent="0.2">
       <c r="J147" s="1" t="s">
         <v>408</v>
       </c>
@@ -9997,7 +10002,7 @@
         <v>1.1333333333333333</v>
       </c>
     </row>
-    <row r="148" spans="1:26">
+    <row r="148" spans="1:26" x14ac:dyDescent="0.2">
       <c r="J148" s="1" t="s">
         <v>410</v>
       </c>
@@ -10018,7 +10023,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="149" spans="1:26">
+    <row r="149" spans="1:26" x14ac:dyDescent="0.2">
       <c r="J149" s="1" t="s">
         <v>411</v>
       </c>
@@ -10036,7 +10041,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="150" spans="1:26">
+    <row r="150" spans="1:26" x14ac:dyDescent="0.2">
       <c r="J150" s="1" t="s">
         <v>412</v>
       </c>
@@ -10054,7 +10059,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="151" spans="1:26">
+    <row r="151" spans="1:26" x14ac:dyDescent="0.2">
       <c r="J151" s="1" t="s">
         <v>413</v>
       </c>
@@ -10069,7 +10074,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="152" spans="1:26">
+    <row r="152" spans="1:26" x14ac:dyDescent="0.2">
       <c r="J152" s="1" t="s">
         <v>414</v>
       </c>
@@ -10084,7 +10089,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="153" spans="1:26">
+    <row r="153" spans="1:26" x14ac:dyDescent="0.2">
       <c r="J153" s="1" t="s">
         <v>415</v>
       </c>
@@ -10158,150 +10163,150 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.875" style="4" customWidth="1"/>
+    <col min="1" max="1" width="8.83203125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="3"/>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
         <v>32</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
         <v>30</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
         <v>19</v>
       </c>
